--- a/KALIBRACE_20240815/Kalibrace_tomo_20240815_Optima/Vysledky segmentace.xlsx
+++ b/KALIBRACE_20240815/Kalibrace_tomo_20240815_Optima/Vysledky segmentace.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\mrtva_doba_VU\KALIBRACE_20240815\Kalibrace_tomo_20240815_Optima\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1FE780-673C-4EF7-9B45-A3FAEE63AD0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA61C37B-B469-460D-88A4-AC1F43A3046C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14595" yWindow="0" windowWidth="23910" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6045" yWindow="2145" windowWidth="28800" windowHeight="8250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>Optima 1</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>Optima 3</t>
+  </si>
+  <si>
+    <t>3089.74</t>
+  </si>
+  <si>
+    <t>846.282</t>
   </si>
 </sst>
 </file>
@@ -414,7 +420,7 @@
   <dimension ref="B2:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,19 +504,19 @@
         <v>4</v>
       </c>
       <c r="J3">
-        <v>1232</v>
+        <v>1217</v>
       </c>
       <c r="K3">
-        <v>4847</v>
+        <v>4862</v>
       </c>
       <c r="L3" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="M3">
-        <v>2979</v>
+        <v>3058</v>
       </c>
       <c r="N3" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">

--- a/KALIBRACE_20240815/Kalibrace_tomo_20240815_Optima/Vysledky segmentace.xlsx
+++ b/KALIBRACE_20240815/Kalibrace_tomo_20240815_Optima/Vysledky segmentace.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\mrtva_doba_VU\KALIBRACE_20240815\Kalibrace_tomo_20240815_Optima\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA61C37B-B469-460D-88A4-AC1F43A3046C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5359DC20-5CA8-47AD-A505-7B31F9A73BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6045" yWindow="2145" windowWidth="28800" windowHeight="8250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3615" yWindow="2145" windowWidth="31230" windowHeight="11550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>Optima 1</t>
   </si>
@@ -33,21 +33,6 @@
     <t>inj_strikacka</t>
   </si>
   <si>
-    <t>18.487</t>
-  </si>
-  <si>
-    <t>18010.2</t>
-  </si>
-  <si>
-    <t>18.0102</t>
-  </si>
-  <si>
-    <t>3016.59</t>
-  </si>
-  <si>
-    <t>853.577</t>
-  </si>
-  <si>
     <t>segment</t>
   </si>
   <si>
@@ -87,19 +72,31 @@
     <t>Optima 2</t>
   </si>
   <si>
-    <t>3067.34</t>
-  </si>
-  <si>
-    <t>828.812</t>
-  </si>
-  <si>
     <t>Optima 3</t>
   </si>
   <si>
-    <t>3089.74</t>
-  </si>
-  <si>
-    <t>846.282</t>
+    <t>19876.9</t>
+  </si>
+  <si>
+    <t>19.8769</t>
+  </si>
+  <si>
+    <t>19302.8</t>
+  </si>
+  <si>
+    <t>19.3028</t>
+  </si>
+  <si>
+    <t>2972.92</t>
+  </si>
+  <si>
+    <t>929.378</t>
+  </si>
+  <si>
+    <t>2951.6</t>
+  </si>
+  <si>
+    <t>912.471</t>
   </si>
 </sst>
 </file>
@@ -420,7 +417,7 @@
   <dimension ref="B2:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,40 +439,40 @@
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="I2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="J2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="K2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="L2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="M2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" t="s">
+      <c r="N2" t="s">
         <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
@@ -486,119 +483,119 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>7754</v>
-      </c>
-      <c r="E3">
-        <v>18487</v>
+        <v>8337</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G3">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="H3" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="J3">
-        <v>1217</v>
+        <v>826</v>
       </c>
       <c r="K3">
         <v>4862</v>
       </c>
       <c r="L3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M3">
-        <v>3058</v>
+        <v>2942</v>
       </c>
       <c r="N3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>7754</v>
-      </c>
-      <c r="E4">
-        <v>18487</v>
+        <v>8337</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G4">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="H4" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="J4">
-        <v>1227</v>
+        <v>852</v>
       </c>
       <c r="K4">
         <v>4805</v>
       </c>
       <c r="L4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M4">
-        <v>3043</v>
+        <v>2919</v>
       </c>
       <c r="N4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>7754</v>
-      </c>
-      <c r="E5">
-        <v>18487</v>
+        <v>8337</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G5">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="H5" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="J5">
-        <v>1232</v>
+        <v>852</v>
       </c>
       <c r="K5">
-        <v>4847</v>
+        <v>4805</v>
       </c>
       <c r="L5" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="M5">
-        <v>2979</v>
+        <v>2919</v>
       </c>
       <c r="N5" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/KALIBRACE_20240815/Kalibrace_tomo_20240815_Optima/Vysledky segmentace.xlsx
+++ b/KALIBRACE_20240815/Kalibrace_tomo_20240815_Optima/Vysledky segmentace.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\mrtva_doba_VU\KALIBRACE_20240815\Kalibrace_tomo_20240815_Optima\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5359DC20-5CA8-47AD-A505-7B31F9A73BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37A2CC5-A348-4249-9D2E-B80EC4F22B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3615" yWindow="2145" windowWidth="31230" windowHeight="11550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>Optima 1</t>
   </si>
@@ -75,41 +86,44 @@
     <t>Optima 3</t>
   </si>
   <si>
-    <t>19876.9</t>
-  </si>
-  <si>
-    <t>19.8769</t>
-  </si>
-  <si>
-    <t>19302.8</t>
-  </si>
-  <si>
-    <t>19.3028</t>
-  </si>
-  <si>
-    <t>2972.92</t>
-  </si>
-  <si>
-    <t>929.378</t>
-  </si>
-  <si>
-    <t>2951.6</t>
-  </si>
-  <si>
-    <t>912.471</t>
+    <t>120 views</t>
+  </si>
+  <si>
+    <t>60 views</t>
+  </si>
+  <si>
+    <t>počet impulsu ve VOI na 120 views:</t>
+  </si>
+  <si>
+    <t>aktivita v den kalibrace:</t>
+  </si>
+  <si>
+    <t>Citlivost:</t>
+  </si>
+  <si>
+    <t>četnost impulsu ve VOI na 120 views:</t>
+  </si>
+  <si>
+    <t>actual frame duration [s]:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="2">
@@ -132,8 +146,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -414,20 +431,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:N5"/>
+  <dimension ref="A2:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
@@ -437,7 +455,7 @@
     <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>2</v>
       </c>
@@ -475,7 +493,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -485,20 +506,20 @@
       <c r="D3">
         <v>8337</v>
       </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
+      <c r="E3">
+        <v>19876.900000000001</v>
+      </c>
+      <c r="F3">
+        <v>19.876899999999999</v>
       </c>
       <c r="G3">
         <v>224</v>
       </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
+      <c r="H3">
+        <v>19302.8</v>
+      </c>
+      <c r="I3">
+        <v>19.302800000000001</v>
       </c>
       <c r="J3">
         <v>826</v>
@@ -506,17 +527,20 @@
       <c r="K3">
         <v>4862</v>
       </c>
-      <c r="L3" t="s">
-        <v>20</v>
+      <c r="L3">
+        <v>2972.92</v>
       </c>
       <c r="M3">
         <v>2942</v>
       </c>
-      <c r="N3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N3">
+        <v>929.37800000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
@@ -526,20 +550,20 @@
       <c r="D4">
         <v>8337</v>
       </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
+      <c r="E4">
+        <v>19876.900000000001</v>
+      </c>
+      <c r="F4">
+        <v>19.876899999999999</v>
       </c>
       <c r="G4">
         <v>224</v>
       </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" t="s">
-        <v>19</v>
+      <c r="H4">
+        <v>19302.8</v>
+      </c>
+      <c r="I4">
+        <v>19.302800000000001</v>
       </c>
       <c r="J4">
         <v>852</v>
@@ -547,17 +571,20 @@
       <c r="K4">
         <v>4805</v>
       </c>
-      <c r="L4" t="s">
-        <v>22</v>
+      <c r="L4">
+        <v>2951.6</v>
       </c>
       <c r="M4">
         <v>2919</v>
       </c>
-      <c r="N4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N4">
+        <v>912.471</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
@@ -567,35 +594,84 @@
       <c r="D5">
         <v>8337</v>
       </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
+      <c r="E5">
+        <v>19876.900000000001</v>
+      </c>
+      <c r="F5">
+        <v>19.876899999999999</v>
       </c>
       <c r="G5">
         <v>224</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5">
+        <v>19302.8</v>
+      </c>
+      <c r="I5">
+        <v>19.302800000000001</v>
+      </c>
+      <c r="J5">
+        <v>789</v>
+      </c>
+      <c r="K5">
+        <v>4847</v>
+      </c>
+      <c r="L5">
+        <v>2901.83</v>
+      </c>
+      <c r="M5">
+        <v>2937</v>
+      </c>
+      <c r="N5">
+        <v>932.67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
         <v>18</v>
       </c>
-      <c r="I5" t="s">
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <f xml:space="preserve"> AVERAGE(L3:L4)*G3</f>
+        <v>663546.24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <f>H15/(120*30)</f>
+        <v>184.3184</v>
+      </c>
+    </row>
+    <row r="19" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
         <v>19</v>
       </c>
-      <c r="J5">
-        <v>852</v>
-      </c>
-      <c r="K5">
-        <v>4805</v>
-      </c>
-      <c r="L5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5">
-        <v>2919</v>
-      </c>
-      <c r="N5" t="s">
-        <v>23</v>
+    </row>
+    <row r="20" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="H20" s="1">
+        <v>26.602</v>
+      </c>
+    </row>
+    <row r="22" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22">
+        <f>H17/H20</f>
+        <v>6.9287421998345984</v>
       </c>
     </row>
   </sheetData>

--- a/KALIBRACE_20240815/Kalibrace_tomo_20240815_Optima/Vysledky segmentace.xlsx
+++ b/KALIBRACE_20240815/Kalibrace_tomo_20240815_Optima/Vysledky segmentace.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\mrtva_doba_VU\KALIBRACE_20240815\Kalibrace_tomo_20240815_Optima\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37A2CC5-A348-4249-9D2E-B80EC4F22B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4223D264-D09D-4333-8857-83F8642628E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>Optima 1</t>
   </si>
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t>actual frame duration [s]:</t>
+  </si>
+  <si>
+    <t>ACSCRR_60 views</t>
+  </si>
+  <si>
+    <t>cps/MBq</t>
   </si>
 </sst>
 </file>
@@ -434,7 +440,7 @@
   <dimension ref="A2:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,6 +631,47 @@
         <v>932.67</v>
       </c>
     </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>8337</v>
+      </c>
+      <c r="E8">
+        <v>19876.900000000001</v>
+      </c>
+      <c r="F8">
+        <v>19.876899999999999</v>
+      </c>
+      <c r="G8">
+        <v>224</v>
+      </c>
+      <c r="H8">
+        <v>19302.8</v>
+      </c>
+      <c r="I8">
+        <v>19.302800000000001</v>
+      </c>
+      <c r="J8">
+        <v>3929</v>
+      </c>
+      <c r="K8">
+        <v>32760</v>
+      </c>
+      <c r="L8">
+        <v>20093.599999999999</v>
+      </c>
+      <c r="M8">
+        <v>20854</v>
+      </c>
+      <c r="N8">
+        <v>7257.37</v>
+      </c>
+    </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G13" t="s">
         <v>22</v>
@@ -640,8 +687,8 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H15">
-        <f xml:space="preserve"> AVERAGE(L3:L4)*G3</f>
-        <v>663546.24</v>
+        <f xml:space="preserve"> AVERAGE(L8)*G8</f>
+        <v>4500966.3999999994</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -649,29 +696,32 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:9" x14ac:dyDescent="0.25">
       <c r="H17">
-        <f>H15/(120*30)</f>
-        <v>184.3184</v>
-      </c>
-    </row>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.25">
+        <f>H15/(60*30)</f>
+        <v>2500.5368888888884</v>
+      </c>
+    </row>
+    <row r="19" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="7:9" x14ac:dyDescent="0.25">
       <c r="H20" s="1">
         <v>26.602</v>
       </c>
     </row>
-    <row r="22" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G22" t="s">
         <v>20</v>
       </c>
       <c r="H22">
         <f>H17/H20</f>
-        <v>6.9287421998345984</v>
+        <v>93.998078674118048</v>
+      </c>
+      <c r="I22" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/KALIBRACE_20240815/Kalibrace_tomo_20240815_Optima/Vysledky segmentace.xlsx
+++ b/KALIBRACE_20240815/Kalibrace_tomo_20240815_Optima/Vysledky segmentace.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\mrtva_doba_VU\KALIBRACE_20240815\Kalibrace_tomo_20240815_Optima\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4223D264-D09D-4333-8857-83F8642628E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E192A37-FCC9-4373-8702-FAE31CFE5540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="345" windowWidth="31230" windowHeight="11550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
-  <si>
-    <t>Optima 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>inj_strikacka</t>
   </si>
@@ -47,63 +44,15 @@
     <t>segment</t>
   </si>
   <si>
-    <t>voxel_count CT</t>
-  </si>
-  <si>
-    <t>volume CT mm3</t>
-  </si>
-  <si>
-    <t>volume CT cm3</t>
-  </si>
-  <si>
     <t>voxel count SPECT</t>
   </si>
   <si>
-    <t xml:space="preserve">volume SPECT mm3 </t>
-  </si>
-  <si>
-    <t>volume SPECT cm3</t>
-  </si>
-  <si>
-    <t>minimum</t>
-  </si>
-  <si>
-    <t>maximum</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>median</t>
-  </si>
-  <si>
-    <t>standard deviation</t>
-  </si>
-  <si>
-    <t>Optima 2</t>
-  </si>
-  <si>
-    <t>Optima 3</t>
-  </si>
-  <si>
-    <t>120 views</t>
-  </si>
-  <si>
-    <t>60 views</t>
-  </si>
-  <si>
-    <t>počet impulsu ve VOI na 120 views:</t>
-  </si>
-  <si>
     <t>aktivita v den kalibrace:</t>
   </si>
   <si>
     <t>Citlivost:</t>
   </si>
   <si>
-    <t>četnost impulsu ve VOI na 120 views:</t>
-  </si>
-  <si>
     <t>actual frame duration [s]:</t>
   </si>
   <si>
@@ -111,6 +60,42 @@
   </si>
   <si>
     <t>cps/MBq</t>
+  </si>
+  <si>
+    <t>počet impulsu ve VOI na 60 views:</t>
+  </si>
+  <si>
+    <t>voxel count CT</t>
+  </si>
+  <si>
+    <t>volume mm3 CT</t>
+  </si>
+  <si>
+    <t>volume cm3 CT</t>
+  </si>
+  <si>
+    <t>volume mm3 SPECT</t>
+  </si>
+  <si>
+    <t>volume cm3 SPECT</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
+  </si>
+  <si>
+    <t>četnost impulsu ve VOI na 60 views (čas je pouze na 30 views páč dvě hlavy):</t>
   </si>
 </sst>
 </file>
@@ -437,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:N22"/>
+  <dimension ref="A7:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,220 +446,88 @@
     <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="H7" t="s">
         <v>12</v>
       </c>
-      <c r="N2" t="s">
+      <c r="I7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="J7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>8337</v>
-      </c>
-      <c r="E3">
-        <v>19876.900000000001</v>
-      </c>
-      <c r="F3">
-        <v>19.876899999999999</v>
-      </c>
-      <c r="G3">
-        <v>224</v>
-      </c>
-      <c r="H3">
-        <v>19302.8</v>
-      </c>
-      <c r="I3">
-        <v>19.302800000000001</v>
-      </c>
-      <c r="J3">
-        <v>826</v>
-      </c>
-      <c r="K3">
-        <v>4862</v>
-      </c>
-      <c r="L3">
-        <v>2972.92</v>
-      </c>
-      <c r="M3">
-        <v>2942</v>
-      </c>
-      <c r="N3">
-        <v>929.37800000000004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>8337</v>
-      </c>
-      <c r="E4">
-        <v>19876.900000000001</v>
-      </c>
-      <c r="F4">
-        <v>19.876899999999999</v>
-      </c>
-      <c r="G4">
-        <v>224</v>
-      </c>
-      <c r="H4">
-        <v>19302.8</v>
-      </c>
-      <c r="I4">
-        <v>19.302800000000001</v>
-      </c>
-      <c r="J4">
-        <v>852</v>
-      </c>
-      <c r="K4">
-        <v>4805</v>
-      </c>
-      <c r="L4">
-        <v>2951.6</v>
-      </c>
-      <c r="M4">
-        <v>2919</v>
-      </c>
-      <c r="N4">
-        <v>912.471</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="M7" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>8337</v>
-      </c>
-      <c r="E5">
-        <v>19876.900000000001</v>
-      </c>
-      <c r="F5">
-        <v>19.876899999999999</v>
-      </c>
-      <c r="G5">
-        <v>224</v>
-      </c>
-      <c r="H5">
-        <v>19302.8</v>
-      </c>
-      <c r="I5">
-        <v>19.302800000000001</v>
-      </c>
-      <c r="J5">
-        <v>789</v>
-      </c>
-      <c r="K5">
-        <v>4847</v>
-      </c>
-      <c r="L5">
-        <v>2901.83</v>
-      </c>
-      <c r="M5">
-        <v>2937</v>
-      </c>
-      <c r="N5">
-        <v>932.67</v>
+      <c r="N7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>8337</v>
+        <v>6881</v>
       </c>
       <c r="E8">
-        <v>19876.900000000001</v>
+        <v>16405.599999999999</v>
       </c>
       <c r="F8">
-        <v>19.876899999999999</v>
+        <v>16.4056</v>
       </c>
       <c r="G8">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="H8">
-        <v>19302.8</v>
+        <v>16803.8</v>
       </c>
       <c r="I8">
-        <v>19.302800000000001</v>
+        <v>16.803799999999999</v>
       </c>
       <c r="J8">
-        <v>3929</v>
+        <v>8547</v>
       </c>
       <c r="K8">
         <v>32760</v>
       </c>
       <c r="L8">
-        <v>20093.599999999999</v>
+        <v>21735.3</v>
       </c>
       <c r="M8">
-        <v>20854</v>
+        <v>22039</v>
       </c>
       <c r="N8">
-        <v>7257.37</v>
+        <v>6092.64</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G13" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="H13">
         <v>30</v>
@@ -682,29 +535,29 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H15">
         <f xml:space="preserve"> AVERAGE(L8)*G8</f>
-        <v>4500966.3999999994</v>
+        <v>4238383.5</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="7:9" x14ac:dyDescent="0.25">
       <c r="H17">
-        <f>H15/(60*30)</f>
-        <v>2500.5368888888884</v>
+        <f>H15/(30*H13)</f>
+        <v>4709.3149999999996</v>
       </c>
     </row>
     <row r="19" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G19" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="7:9" x14ac:dyDescent="0.25">
@@ -714,14 +567,14 @@
     </row>
     <row r="22" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G22" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="H22">
         <f>H17/H20</f>
-        <v>93.998078674118048</v>
+        <v>177.02860687166375</v>
       </c>
       <c r="I22" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/KALIBRACE_20240815/Kalibrace_tomo_20240815_Optima/Vysledky segmentace.xlsx
+++ b/KALIBRACE_20240815/Kalibrace_tomo_20240815_Optima/Vysledky segmentace.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11027"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielptacek/Desktop/mrtva_doba_VU/KALIBRACE_20240815/Kalibrace_tomo_20240815_Optima/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DB30EE-850E-9748-8D7D-45307A04EE4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92AD63D4-EDEA-0F4B-BB38-08AA43C01666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -422,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A7:N22"/>
+  <dimension ref="A7:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -446,7 +446,7 @@
     <col min="14" max="14" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>1</v>
       </c>
@@ -484,7 +484,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -510,22 +510,31 @@
         <v>16.803799999999999</v>
       </c>
       <c r="J8">
-        <v>8547</v>
+        <v>2123</v>
       </c>
       <c r="K8">
-        <v>32760</v>
+        <v>8744</v>
       </c>
       <c r="L8">
-        <v>21735.3</v>
+        <v>5683.24</v>
       </c>
       <c r="M8">
-        <v>22039</v>
+        <v>5551</v>
       </c>
       <c r="N8">
-        <v>6092.64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1764.77</v>
+      </c>
+      <c r="O8">
+        <v>3559.22</v>
+      </c>
+      <c r="P8">
+        <v>16383</v>
+      </c>
+      <c r="Q8">
+        <v>16.382999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="G13" t="s">
         <v>5</v>
       </c>
@@ -533,18 +542,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="G14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="H15">
         <f xml:space="preserve"> L8*G8</f>
-        <v>4238383.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1108231.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="G16" t="s">
         <v>19</v>
       </c>
@@ -552,7 +561,7 @@
     <row r="17" spans="7:9" x14ac:dyDescent="0.2">
       <c r="H17">
         <f>H15/(30*H13)</f>
-        <v>4709.3149999999996</v>
+        <v>1231.3686666666667</v>
       </c>
     </row>
     <row r="19" spans="7:9" x14ac:dyDescent="0.2">
@@ -571,7 +580,7 @@
       </c>
       <c r="H22">
         <f>H17/H20</f>
-        <v>177.02860687166375</v>
+        <v>46.288574793875149</v>
       </c>
       <c r="I22" t="s">
         <v>7</v>
